--- a/biology/Zoologie/Dendrochirus/Dendrochirus.xlsx
+++ b/biology/Zoologie/Dendrochirus/Dendrochirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dendrochirus est un genre de poissons marins de la famille des scorpaénidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un genre de rascasses très proche morphologiquement des Pterois (d'où la confusion de leurs noms vernaculaires), mais caractérisés par des nageoires pectorales plus grandes, et arrondies en demi-disques horizontaux souvent très colorés. Les rayons y sont liés par la voilure presque jusqu'à leur pointe.
 Comme tous les Scorpaenidae, ces poissons sont équipés de glandes à venin qui alimentent leurs rayons acérés.
@@ -543,16 +557,18 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (22 janvier 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (22 janvier 2017) :
 Dendrochirus barberi (Steindachner, 1900)
 Dendrochirus bellus (Jordan &amp; Hubbs, 1925)
 Dendrochirus biocellatus (Fowler, 1938) — Ptérois ocellé
 Dendrochirus brachypterus (Cuvier, 1829) — Ptérois nain
 Dendrochirus tuamotuensis (Motsunuma &amp; Motomura, 2013)
 Dendrochirus zebra (Cuvier, 1829) — Ptérois zèbre
-FishBase                                           (13 octobre 2019)[2] y ajoute Dendrochirus hemprichi Matsunuma, Motomura &amp; Bogorodsky, 2017
+FishBase                                           (13 octobre 2019) y ajoute Dendrochirus hemprichi Matsunuma, Motomura &amp; Bogorodsky, 2017
 			Dendrochirus barberi
 			Dendrochirus biocellatus
 			Dendrochirus brachypterus
